--- a/attendance-files/DT/DT (B) Attendance Sheet.xlsx
+++ b/attendance-files/DT/DT (B) Attendance Sheet.xlsx
@@ -1253,8 +1253,7 @@
     <col customWidth="1" min="3" max="3" width="30.25"/>
     <col customWidth="1" min="4" max="4" width="7.25"/>
     <col customWidth="1" min="5" max="6" width="12.75"/>
-    <col customWidth="1" hidden="1" min="7" max="11" width="10.75"/>
-    <col customWidth="1" min="12" max="26" width="10.75"/>
+    <col customWidth="1" min="7" max="26" width="10.75"/>
     <col customWidth="1" min="27" max="27" width="9.0"/>
   </cols>
   <sheetData>
